--- a/biology/Botanique/Mon_jardin_et_ma_maison/Mon_jardin_et_ma_maison.xlsx
+++ b/biology/Botanique/Mon_jardin_et_ma_maison/Mon_jardin_et_ma_maison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mon jardin et ma maison (graphié Mon Jardin &amp; Ma Maison) est un magazine mensuel consacré à l'univers du jardin et créé en 1958[1]. Le magazine est édité à 12 numéros par an et chaque numéro contient en moyenne 119 pages.
-Le titre était édité à l'origine par Hachette Filipacchi Associés, une filiale de Lagardère Active. En octobre 2013, Denis Olivennes, PDG de cette dernière, annonce que le groupe cherche à se séparer de certains de ses magazines afin de se concentrer sur les marques les plus rentables (Elle, Paris Match, Télé 7 Jours...). Dix autres titres, dont Mon jardin et ma maison, seraient vendus ou arrêtés s'ils ne trouvaient pas d'acquéreur[2].
-Le 2 avril 2014, un repreneur est annoncé : il s'agit du consortium 4B Media (groupe Rossel et Reworld Media), le titre revenant à Reworld[3],[4] (voir la chronologie de la cession dans Lagardère Active, section Métiers).
+Mon jardin et ma maison (graphié Mon Jardin &amp; Ma Maison) est un magazine mensuel consacré à l'univers du jardin et créé en 1958. Le magazine est édité à 12 numéros par an et chaque numéro contient en moyenne 119 pages.
+Le titre était édité à l'origine par Hachette Filipacchi Associés, une filiale de Lagardère Active. En octobre 2013, Denis Olivennes, PDG de cette dernière, annonce que le groupe cherche à se séparer de certains de ses magazines afin de se concentrer sur les marques les plus rentables (Elle, Paris Match, Télé 7 Jours...). Dix autres titres, dont Mon jardin et ma maison, seraient vendus ou arrêtés s'ils ne trouvaient pas d'acquéreur.
+Le 2 avril 2014, un repreneur est annoncé : il s'agit du consortium 4B Media (groupe Rossel et Reworld Media), le titre revenant à Reworld, (voir la chronologie de la cession dans Lagardère Active, section Métiers).
 </t>
         </is>
       </c>
@@ -516,18 +528,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Structure du lectorat
-67 % de femmes
+          <t>Structure du lectorat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>67 % de femmes
 11 % de 15-34 ans ; 24 % de 35-49 ans ; 65 % de 50 ans et +
 52 % d’actifs
 77 % de propriétaires
 31 % d’urbains
 83 % en maison individuelle
-32 % de foyers CSP+[5]
-Répartition des ventes
-19 % ventes kiosques
+32 % de foyers CSP+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon_jardin_et_ma_maison</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mon_jardin_et_ma_maison</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les chiffres clefs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition des ventes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>19 % ventes kiosques
 66 % abonnements
-14 % autres (par tiers ou différée)[5]</t>
+14 % autres (par tiers ou différée)</t>
         </is>
       </c>
     </row>
